--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2686404.283618111</v>
+        <v>2802021.145354697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8808965.85855102</v>
+        <v>8808970.094203057</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651822</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>227.2258086184466</v>
+        <v>221.0427070190021</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.5669218217268</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807532</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642685</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>148.3576175828976</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +819,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>53.50274551782123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825636</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>162.5141398456605</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>232.2791855053265</v>
+        <v>225.4031397636152</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>73.38663907950401</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>195.771028304726</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>2.214688090590209</v>
+        <v>83.2519890829744</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>91.61513712853294</v>
+        <v>85.95841473971747</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908672</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>66.19012763330601</v>
+        <v>129.6695180685889</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>67.60860312451699</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>26.07046444232026</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.3285337992676</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>105.3219429113319</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.53306611597336</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>159.2661870898837</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>46.15319674220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2843,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.3243999861102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.96816871822011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>85.08368458989422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>94.03099112488283</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>66.43694060668928</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G46" t="n">
-        <v>51.36569740310427</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>899.194086719346</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="C2" t="n">
-        <v>633.1508394817884</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="D2" t="n">
-        <v>633.1508394817884</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="E2" t="n">
-        <v>633.1508394817884</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="F2" t="n">
-        <v>367.1075922442306</v>
+        <v>360.8439049111298</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467402</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935576</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959992</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670371</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289002</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108074</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>899.194086719346</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>899.194086719346</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>899.194086719346</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>899.194086719346</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>899.194086719346</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X2" t="n">
-        <v>899.194086719346</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>899.194086719346</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>610.2094703159491</v>
+        <v>351.7936650996839</v>
       </c>
       <c r="C3" t="n">
-        <v>610.2094703159491</v>
+        <v>351.7936650996839</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6267210010736</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3892659956181</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>202.854708022503</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129065</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129065</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371113</v>
+        <v>121.6535314649671</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433186</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299057</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779558</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171761026</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634714</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155247</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155247</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>838.3453570153382</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>610.2094703159491</v>
+        <v>559.5539638646378</v>
       </c>
       <c r="V3" t="n">
-        <v>610.2094703159491</v>
+        <v>559.5539638646378</v>
       </c>
       <c r="W3" t="n">
-        <v>610.2094703159491</v>
+        <v>559.5539638646378</v>
       </c>
       <c r="X3" t="n">
-        <v>610.2094703159491</v>
+        <v>559.5539638646378</v>
       </c>
       <c r="Y3" t="n">
-        <v>610.2094703159491</v>
+        <v>351.7936650996839</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.2708438350288</v>
+        <v>502.2643237724978</v>
       </c>
       <c r="C4" t="n">
-        <v>482.2276665443003</v>
+        <v>333.3281408445909</v>
       </c>
       <c r="D4" t="n">
-        <v>482.2276665443003</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E4" t="n">
-        <v>482.2276665443003</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>482.2276665443003</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6577867909733</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7317983794767</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440282</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504859</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570834</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210613</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376812</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351424</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898972072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>717.9193086652685</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>717.9193086652685</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>717.9193086652685</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V4" t="n">
-        <v>717.9193086652685</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="W4" t="n">
-        <v>717.9193086652685</v>
+        <v>683.9127886027376</v>
       </c>
       <c r="X4" t="n">
-        <v>717.9193086652685</v>
+        <v>683.9127886027376</v>
       </c>
       <c r="Y4" t="n">
-        <v>717.9193086652685</v>
+        <v>683.9127886027376</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>248.7770495552874</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4601,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>522.1002068716689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.6316683732355</v>
+        <v>698.4589228449108</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>524.0058935637838</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178855</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="W6" t="n">
-        <v>375.4831685787684</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="X6" t="n">
-        <v>167.6316683732355</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.6316683732355</v>
+        <v>698.4589228449108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.5914690453325</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.618461328661</v>
+        <v>380.4985507797018</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>380.4985507797018</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>159.7059716361716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.873294294348</v>
+        <v>1322.995762166817</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.910777353937</v>
+        <v>1322.995762166817</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.910777353937</v>
+        <v>964.7300635600661</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.903382004796</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9174772151884</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2540.56462266116</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2435.830015762132</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2435.830015762132</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2435.830015762132</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2435.830015762132</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>2083.061360492018</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>1709.595602230938</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294348</v>
+        <v>1709.595602230938</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>929.5097208010745</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>755.0566915199475</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>606.1222818586963</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143504</v>
+        <v>684.7364639442752</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458222</v>
+        <v>979.2724473777562</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.338915852057</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1729.423318324626</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2061.310128312015</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2308.345486741639</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2536.272628442623</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251695</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2230.816477685344</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1767.574213519831</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1513.336856791629</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1305.485356586096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1097.725057821143</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>584.7234273455397</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>584.7234273455397</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>584.7234273455397</v>
       </c>
       <c r="E10" t="n">
-        <v>370.8505955176373</v>
+        <v>436.8103337631466</v>
       </c>
       <c r="F10" t="n">
-        <v>223.960648019727</v>
+        <v>436.8103337631466</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.63468308380135</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.174753887024</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.056380381666</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>766.3718921757794</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>766.3718921757794</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>766.3718921757794</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>766.3718921757794</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2311.62586152507</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2092.024396548011</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5500,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1031.260321675049</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>862.3241387471426</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>712.2074993348068</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>564.2944057524137</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>417.4044582545033</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>250.2083589693833</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>108.4965278115813</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1433.701365648819</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1212.908786505289</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287915</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.259756705521</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F22" t="n">
-        <v>2613.369809207611</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G22" t="n">
-        <v>2446.173709922491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,7 +6232,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6254,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6306,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>212.6630592897471</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6445,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.5582272005026</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>134.1885506421336</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,22 +6700,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6785,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>855.1271669926552</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>705.0105275803195</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>557.0974339979264</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>410.207486500016</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>243.0113872148959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7503,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3058.28948970025</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>2908.172850287915</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>2760.259756705521</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877262</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079195</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692513</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872720141</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.743458178065</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>113.8482254012511</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>113.4176828771276</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>226.0671788815077</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>246.1944645373234</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.11201973523731</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73277020259218</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>22.63678056686643</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>41.29766760034542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>61.35027805667495</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>131.6786642641543</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>73.85777223953461</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891646</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>774660.843824852</v>
+        <v>774673.531075143</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779933.961281492</v>
+        <v>779924.8200328206</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909315</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680922721</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>390680.0076580782</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507909.2320606939</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642129</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774228852</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95270.2377910174</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251328.6410967685</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140465.251750112</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26442,7 +26444,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179359</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179352</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557702</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92902.86757567892</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316693.0550952432</v>
+        <v>-317003.6892764459</v>
       </c>
       <c r="C6" t="n">
-        <v>362717.8209466549</v>
+        <v>363084.2913147473</v>
       </c>
       <c r="D6" t="n">
-        <v>52954.64005478474</v>
+        <v>53311.33315416446</v>
       </c>
       <c r="E6" t="n">
-        <v>46120.94104400871</v>
+        <v>45697.1506078604</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685542</v>
+        <v>553606.3826685541</v>
       </c>
       <c r="G6" t="n">
         <v>553606.3826685544</v>
@@ -26540,28 +26542,28 @@
         <v>553606.3826685543</v>
       </c>
       <c r="I6" t="n">
+        <v>553606.3826685543</v>
+      </c>
+      <c r="J6" t="n">
+        <v>484607.2282494401</v>
+      </c>
+      <c r="K6" t="n">
+        <v>553606.382668554</v>
+      </c>
+      <c r="L6" t="n">
+        <v>458336.1448775369</v>
+      </c>
+      <c r="M6" t="n">
+        <v>420888.4069730846</v>
+      </c>
+      <c r="N6" t="n">
         <v>553606.3826685541</v>
       </c>
-      <c r="J6" t="n">
-        <v>484693.8494821329</v>
-      </c>
-      <c r="K6" t="n">
-        <v>553521.1770708121</v>
-      </c>
-      <c r="L6" t="n">
-        <v>458223.7365309845</v>
-      </c>
-      <c r="M6" t="n">
-        <v>420999.0889396274</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>553606.3826685542</v>
       </c>
-      <c r="O6" t="n">
-        <v>553606.3826685543</v>
-      </c>
       <c r="P6" t="n">
-        <v>553606.3826685546</v>
+        <v>553606.3826685544</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.1406900856949</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473425637</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>319.647445793304</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.4268100841887</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.382814765182</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236324207</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841887</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.4268100841887</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058254</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765293</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6095117176089</v>
+        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>46.87814374291194</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.49686992065699</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>113.7440755808066</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>124.0088584909305</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>180.5549891403835</v>
+        <v>187.4310348820948</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27673,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>74.05842648513475</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>55.9239548561936</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>284.3083102460008</v>
+        <v>203.2710092536166</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>290.3152329437289</v>
+        <v>295.9719553325443</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164533716</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>100.1164724114982</v>
+        <v>36.63773554311726</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079607</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524903</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646664</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802908</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933478</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876054</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460624</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316495</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231216</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682766</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263685</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410378</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333976</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970828</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289726</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963487</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682324</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466129</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439957</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621628</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564888</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312003</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963014</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058032</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923513</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841641</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195711</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148693</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770396</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528321</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735299</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477782</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354623</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,10 +32572,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4622569139909</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622172</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836728</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176182</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187896</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095314</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099628</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678521</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288365</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227238</v>
+        <v>101.572142489744</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490984</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743304</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848991</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021685</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296655</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083406</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256218</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814117</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979575</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.026051228909</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653965</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.67949061545953</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>188.9976037816846</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215498</v>
+        <v>450.9268494884362</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.5110943772536</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>230.2294360615996</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.53548676783566</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>322.6208179396319</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,16 +38098,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2802021.145354697</v>
+        <v>2797716.805544829</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>66.67731766039422</v>
       </c>
       <c r="G2" t="n">
-        <v>221.0427070190021</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>148.3576175828976</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>173.3160116481447</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.44002971642662</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>162.5141398456605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4031397636152</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>73.38663907950401</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>83.2519890829744</v>
+        <v>260.5167087883574</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>85.95841473971747</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>124.7504076090166</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908672</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256514</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.6695180685889</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>126.3693640728518</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701338</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>67.60860312451699</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.3285337992676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>105.3219429113319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695443</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>159.2661870898837</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>117.6579322793575</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.96816871822011</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>146.0535160667528</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>94.03099112488283</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>142.3046100066265</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275112</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275112</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7894056603332</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E2" t="n">
-        <v>367.7894056603332</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F2" t="n">
-        <v>360.8439049111298</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917556</v>
@@ -4336,16 +4336,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.7936650996839</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>351.7936650996839</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6535314649671</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252638</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>559.5539638646378</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>559.5539638646378</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>559.5539638646378</v>
+        <v>879.7888415735551</v>
       </c>
       <c r="X3" t="n">
-        <v>559.5539638646378</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="Y3" t="n">
-        <v>351.7936650996839</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>502.2643237724978</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="C4" t="n">
-        <v>333.3281408445909</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2115014322552</v>
+        <v>343.6902815968974</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>195.7771880145043</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>48.88724051659395</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>48.88724051659395</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>48.88724051659395</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165361</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165361</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165361</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="W4" t="n">
-        <v>683.9127886027376</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="X4" t="n">
-        <v>683.9127886027376</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="Y4" t="n">
-        <v>683.9127886027376</v>
+        <v>493.8069210092332</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716689</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552874</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>788.477863438847</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716689</v>
+        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698.4589228449108</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>524.0058935637838</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>906.2192216098647</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>698.4589228449108</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>464.5914690453325</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>380.4985507797018</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="X7" t="n">
-        <v>380.4985507797018</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.7059716361716</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1322.995762166817</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1322.995762166817</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>964.7300635600661</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>877.903382004796</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151884</v>
+        <v>129.3074613107948</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607435</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762132</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762132</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762132</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762132</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="W8" t="n">
-        <v>2083.061360492018</v>
+        <v>2434.552247606411</v>
       </c>
       <c r="X8" t="n">
-        <v>1709.595602230938</v>
+        <v>2061.086489345331</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.595602230938</v>
+        <v>1670.947157369519</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010745</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199475</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586963</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487294</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442752</v>
+        <v>298.0857543148189</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777562</v>
+        <v>592.6217377483009</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852057</v>
+        <v>1208.393778287032</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324626</v>
+        <v>1842.133061471873</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312015</v>
+        <v>2174.019871459263</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741639</v>
+        <v>2421.055229888888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442623</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251695</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685344</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519831</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791629</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821143</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.7234273455397</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>584.7234273455397</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>584.7234273455397</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>436.8103337631466</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>436.8103337631466</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380135</v>
+        <v>76.63468308380183</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1533.156055412623</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412619</v>
+        <v>1336.515802634457</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887024</v>
+        <v>1208.869980338647</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.056380381666</v>
+        <v>919.7516068332887</v>
       </c>
       <c r="V10" t="n">
-        <v>766.3718921757794</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="W10" t="n">
-        <v>766.3718921757794</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="X10" t="n">
-        <v>766.3718921757794</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="Y10" t="n">
-        <v>766.3718921757794</v>
+        <v>665.0671186274019</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5135,13 +5135,13 @@
         <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2311.62586152507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2092.024396548011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.949169892209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.264681686322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.847511649361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078141</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5278,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5600,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>773.2931750925917</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>625.3800815101986</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>478.4901340122882</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6135,16 +6135,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>212.6630592897471</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>275.9003817999355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>275.9003817999355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>134.1885506421336</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991043</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7314,22 +7314,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7554,13 +7554,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>26.13373767211354</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004334</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538089</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.8482254012511</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.1944645373234</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.11201973523731</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>6.257951202385129</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>22.63678056686643</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.29766760034542</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.97276993489183</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6786642641543</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>6.310863011585838</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184649</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
@@ -26334,28 +26334,28 @@
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580782</v>
+        <v>390680.007658081</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606939</v>
+        <v>507909.2320606915</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910174</v>
+        <v>95270.23779101817</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.251750112</v>
+        <v>140465.2517501112</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567892</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-317003.6892764459</v>
       </c>
       <c r="C6" t="n">
-        <v>363084.2913147473</v>
+        <v>363084.2913147472</v>
       </c>
       <c r="D6" t="n">
-        <v>53311.33315416446</v>
+        <v>53311.3331541626</v>
       </c>
       <c r="E6" t="n">
-        <v>45697.1506078604</v>
+        <v>45349.77135350597</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141971</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685544</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="J6" t="n">
-        <v>484607.2282494401</v>
+        <v>484259.8489950831</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.382668554</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="L6" t="n">
-        <v>458336.1448775369</v>
+        <v>457988.7656231791</v>
       </c>
       <c r="M6" t="n">
-        <v>420888.4069730846</v>
+        <v>420541.0277187286</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141971</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685544</v>
+        <v>553259.0034141971</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856949</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788894</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
+        <v>340.1987280813172</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>77.49686992065699</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>78.37897151277488</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>109.7105438083819</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>124.0088584909305</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>74.05842648513475</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>203.2710092536166</v>
+        <v>26.00628954823361</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>295.9719553325443</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>224.4905611083964</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.776449164533716</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164522376</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.63773554311726</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.38212443748692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.572142489744</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816846</v>
+        <v>62.90656844127616</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772546</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>621.9919601401325</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804293</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.2294360615996</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783566</v>
+        <v>24.53548676783593</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2797716.805544829</v>
+        <v>2799477.335847616</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283166</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>220.7742444965158</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>66.67731766039422</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>2.875953774682953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>173.3160116481447</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>31.93943778010371</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.44002971642662</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>260.5167087883574</v>
+        <v>260.5167087883576</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465011</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>64.89572798961311</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>124.7504076090166</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115226</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256514</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>190.2932553761603</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>126.3693640728518</v>
+        <v>48.12434305500826</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>46.3551708145588</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695514</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012153</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394019004</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788182182</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695443</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788182182</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788183083</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611477199</v>
       </c>
       <c r="S31" t="n">
-        <v>146.0535160667528</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>32.81060261323905</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>142.3046100066265</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.789405660333</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>367.789405660333</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>367.789405660333</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931551</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>634.167062227511</v>
+        <v>646.859700735818</v>
       </c>
       <c r="W2" t="n">
-        <v>634.167062227511</v>
+        <v>646.859700735818</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>646.859700735818</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>646.859700735818</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>198.4551434940586</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>879.7888415735551</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X3" t="n">
-        <v>671.9373413680223</v>
+        <v>574.4307792790805</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>366.6704805141266</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.8069210092332</v>
+        <v>351.3889017585905</v>
       </c>
       <c r="C4" t="n">
-        <v>493.8069210092332</v>
+        <v>351.3889017585905</v>
       </c>
       <c r="D4" t="n">
-        <v>343.6902815968974</v>
+        <v>201.2722623462547</v>
       </c>
       <c r="E4" t="n">
-        <v>195.7771880145043</v>
+        <v>53.35916876386162</v>
       </c>
       <c r="F4" t="n">
-        <v>48.88724051659395</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>48.88724051659395</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>48.88724051659395</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092332</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092332</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>493.8069210092332</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="X4" t="n">
-        <v>493.8069210092332</v>
+        <v>572.1814809021206</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.8069210092332</v>
+        <v>351.3889017585905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>522.1002068716687</v>
+      </c>
+      <c r="C5" t="n">
         <v>255.7225503044907</v>
       </c>
-      <c r="C5" t="n">
-        <v>41.00642392276842</v>
-      </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
+        <v>788.4778634388467</v>
+      </c>
+      <c r="Y5" t="n">
         <v>522.1002068716687</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="6">
@@ -4634,34 +4634,34 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4704,43 +4704,43 @@
         <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,7 +4761,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
         <v>537.0228411048272</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.347317305397</v>
+        <v>1606.673685131699</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.347317305397</v>
+        <v>1606.673685131699</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986467</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004024</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107948</v>
+        <v>837.4220817353407</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>421.7158597270079</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607435</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045933</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342791</v>
+        <v>2435.830015762139</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342791</v>
+        <v>2370.27877536859</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342791</v>
+        <v>2370.27877536859</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342791</v>
+        <v>2370.27877536859</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.552247606411</v>
+        <v>2370.27877536859</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.086489345331</v>
+        <v>1996.81301710751</v>
       </c>
       <c r="Y8" t="n">
-        <v>1670.947157369519</v>
+        <v>1606.673685131699</v>
       </c>
     </row>
     <row r="9">
@@ -4877,40 +4877,40 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148189</v>
+        <v>559.9063389572711</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483009</v>
+        <v>854.4423223907527</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287032</v>
+        <v>1217.508790865054</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471873</v>
+        <v>1604.593193337624</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459263</v>
+        <v>1936.480003325014</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888888</v>
+        <v>2421.055229888883</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442634</v>
+        <v>2536.272628442629</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
         <v>2232.610870780833</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274019</v>
+        <v>665.0671186274018</v>
       </c>
       <c r="C10" t="n">
-        <v>496.130935699495</v>
+        <v>496.1309356994949</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871593</v>
+        <v>346.0142962871592</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047662</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685572</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380183</v>
+        <v>76.63468308380162</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412623</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634457</v>
+        <v>1439.128892699198</v>
       </c>
       <c r="T10" t="n">
-        <v>1208.869980338647</v>
+        <v>1390.518445168887</v>
       </c>
       <c r="U10" t="n">
-        <v>919.7516068332887</v>
+        <v>1101.400071663528</v>
       </c>
       <c r="V10" t="n">
-        <v>665.0671186274019</v>
+        <v>846.7155834576415</v>
       </c>
       <c r="W10" t="n">
-        <v>665.0671186274019</v>
+        <v>846.7155834576415</v>
       </c>
       <c r="X10" t="n">
-        <v>665.0671186274019</v>
+        <v>846.7155834576415</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.0671186274019</v>
+        <v>846.7155834576415</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356184</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814783076</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038464</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797865</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910821</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570829</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279814</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853373</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580273</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832675</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548758</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510521</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854719</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925696</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490397</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925696</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925697</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925697</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="26">
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6375,7 +6375,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S31" t="n">
-        <v>2232.388575724832</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T31" t="n">
-        <v>2012.787110747773</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U31" t="n">
-        <v>1723.711884091971</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6946,7 +6946,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>815.9830526793647</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>665.866413267029</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>517.9533196846359</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,25 +7311,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.402603663004</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>776.4664207350971</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004334</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538089</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>239.9392607416618</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.3544845744782</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392192748</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392193935</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392193935</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392193843</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>62.35543909864449</v>
       </c>
       <c r="S31" t="n">
-        <v>34.97276993489183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>112.6104454096922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.310863011585838</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184654</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.6521184649</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658081</v>
+        <v>390680.0076580796</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606915</v>
+        <v>507909.2320606924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.413055279013171e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101817</v>
+        <v>95270.23779101782</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.987474118040248e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26423,34 +26423,34 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501112</v>
+        <v>140465.2517501115</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179367</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179378</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179364</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179357</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179355</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567902</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317003.6892764459</v>
+        <v>-317003.689276446</v>
       </c>
       <c r="C6" t="n">
         <v>363084.2913147472</v>
       </c>
       <c r="D6" t="n">
-        <v>53311.3331541626</v>
+        <v>53311.33315416345</v>
       </c>
       <c r="E6" t="n">
-        <v>45349.77135350597</v>
+        <v>45662.41268242621</v>
       </c>
       <c r="F6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="G6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="H6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431184</v>
       </c>
       <c r="I6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="J6" t="n">
-        <v>484259.8489950831</v>
+        <v>484572.4903240043</v>
       </c>
       <c r="K6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="L6" t="n">
-        <v>457988.7656231791</v>
+        <v>458301.4069521006</v>
       </c>
       <c r="M6" t="n">
-        <v>420541.0277187286</v>
+        <v>420853.66904765</v>
       </c>
       <c r="N6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="O6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431183</v>
       </c>
       <c r="P6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431186</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>1.637090463191271e-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.637090463191271e-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.637090463191271e-13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.637090463191271e-13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.637090463191271e-13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.266319098766464e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.266319098766464e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.266319098766464e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627844</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.1406900856965</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933061</v>
+        <v>319.6474457933051</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788894</v>
+        <v>434.27304077889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139516</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139516</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>161.9595971669648</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>340.1987280813172</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>154.769126680718</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>78.37897151277488</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>113.4816102428275</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>109.7105438083819</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>26.00628954823361</v>
+        <v>26.00628954823338</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>141.7688350750767</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>224.4905611083964</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164522376</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164527406</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.38212443748692</v>
+        <v>172.6271454553305</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.209809852298351e-11</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4.983060707359229e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972538</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763198</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035995</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525087</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542136</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026282</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519091</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366405</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133949</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307427</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658782</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650348</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>604.7968300725072</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087223</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559177</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797641</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234329</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127616</v>
+        <v>62.90656844127597</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>450.9268494884366</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772546</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401325</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856978</v>
+        <v>390.9943459318885</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074647</v>
+        <v>335.2392020074642</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804293</v>
+        <v>489.4699258220907</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783593</v>
+        <v>24.53548676783581</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873334</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326296542</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>462.2005856280628</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.63177330663</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
